--- a/spark_simulation_log.xlsx
+++ b/spark_simulation_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W108"/>
+  <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,105 +446,115 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Inputs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Outputs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Issuer_Private</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Issuer_Public</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Tracing_Keypair</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Device_ID</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>TPM_Private</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>TPM_Public</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Private_Key</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Public_Key</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Credential</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Tracing_Token</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>r</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Signature</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>s</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>R_total</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Left</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Computed_c</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Traced_ID</t>
         </is>
@@ -558,11 +568,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'G_0': '[2078775978203000582785132456246366419905628506740557109928378488596755740735, 13103235954008769112353629158943599132491267489864615748757251601649269311689]', 'G_1': '[12494625874837991392275129288523889159081400510575483210953483755649539311736, 9696983587014082576558119178481042912985606206405123535744647729935482304746]', 'G_2': '[10089368849866086286243063281346271074440360153994396429989974073413967763133, 14137127068933845376638630133084139945125995439804555155454776017807080873303]', 'G_3': '[15733630014535015329323300061986146285447567164892489517254776585696380785065, 7412058133243239848755814559505678652953799263476956155200523585943256466609]', 'G_4': '[3177567928575571318604609280290998311266337771495602464123911429526725480994, 7658751844051893397474133428839645896997344822354452139142531617442527573578]', 'G_5': '[14696491677239940154963249067027249090305147970315888704308631157050713962237, 11765985916552351258182200504645220975404439760782731424744737796528587407760]', 'G_6': '[1619247302349769930647213320407769757717375344866868206377352395092281130628, 15817497706894356607602133303056574415036826856323685053484208206771115005107]', 'G_7': '[14352994203448007134853737863262679278326835850364119599081448416904795242150, 15866719344084191674180355218409148131576796348567278396359354973724256562225]', 'G_8': '[8990243439924641512897527940600240911547898144612529635273854060806189767987, 1140154029937230338967215449085520765570859955856883393766840271288370752766]', 'G_9': '[10645798622037745297361814405867480260564110262399362869101575842353267990812, 10905716599366547584957314048720555337446310113548699509920754300093249269940]', 'G_10': '[6339331225901851735939673595840117742241063563667604784102301315359739359862, 11414852554117634342505025127977595507213914762761588030548872152288124285753]', 'G_11': '[3559136792874953870238139691226208097485562576277621842384145484489931087089, 14133484615325488483976621624838643673749971038273424213128783821376472491542]', 'G_12': '[6880646551852569287583600162755096044839370474778677719927110370638828757492, 11038723594694245436470260361003337221887339430111414525326281732367230768514]', 'G_13': '[14319209606482237211626179304809791658868547645871850299614457830147324980752, 9138678458293963886258892120343808555892056790474151503942507350085673905592]', 'G_14': '[2332058380125566662489747881977653745281923086372771180116867726787396210880, 4515317422632975670127435376080614380998487928499027377315337663907516249920]', 'G_15': '[13670472653898099458350332736867863240194237483477255542964347475616434549759, 6822848511132491817558681397208113078206977577915498313852857825693567169757]', 'G_16': '[7308982241591232523083054483687338803214603741091060731609056187149536372908, 5461936830563096501079149357979289517361773515664482067959188730451786413046]', 'G_17': '[10324546092420165740552003208062336520759440746516983495361849079331533051369, 15061043765556043452009513765254624888011492216797122132352862410095930814982]', 'G_18': '[1251583329516030486199381668305838840760818496432597757721907712380245998537, 8555480284576970916100558094330269058416833476267162643673443335625615367410]', 'G_19': '[11281389688509627292696403787126715828868548865294901979387336513853142354054, 10644036456937031744817503974626487678566072728995006823190029419809997722905]', 'G_20': '[1747465927433379170814870838793599481288101364984304849469650724193653536033, 16179766293697651136152307816821949213062887215616161983994766789756245273944]', 'H_0': '[7883450593963382693389600625544277229763476596274924411909508125772325808690, 13153447238514863948433822554300643288153181656640516049256938906165122414594]', 'H_1': '[2065080527925280679188974900200651378704799988322937524508979198147678753931, 9792175477935307158480060065129607645368660853156129366845268859121046769468]', 'G_0_bar': '[[3251478105538521024518236645703251230278316530237336460431787499871987772649, 3934168743730670324218551566847253307922002723192677197289098891125553274737], [3001590762995948324504739930810446039135560088507474789567383516041262272363, 13220031172348563641837735702711517394432865792196552348064740018146227148114]]'}</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>{'G_0': '[6660341480334091998804419357625138126591885465657841120223876353959307098432, 14893037911482355821019407939737754357145714674092639480072524953764365932503]', 'G_1': '[11127956539211423201709029077296337875731263073848565820177137193417869217432, 2334952181246779394366454854777042872847608634430371311165767982273269132437]', 'G_2': '[16094416385567872976988074631549251552866803138047941692329860228394160112168, 14205356864313513363783734689261109190286584452469491151614070179250569837174]', 'G_3': '[1975056232076288401726660653117411339898637413675166906859996281434188480790, 907335879007353007292399135967163090598792115048446760706706380675044680070]', 'G_4': '[1821533022556659148133574763799324037881762819496760269543054752038208486162, 2960915958422706688253432573166876574544060326135466913872371814045000255630]', 'G_5': '[8463838564789614348099067507280760694373209024170178037836261300833855671871, 7197809328763366140319628410968520964817167180848059419080053696328300758579]', 'G_6': '[14471367632812319017503103457970774299570223676447512110531981515925021123438, 4892649107383063469359872729818154903501963108930152473364948527616668950989]', 'G_7': '[3429441233120327935378969874567294873964030479713577388587556775625647069249, 9629419099921596531975580712134545168868993917819796976595549179476225343574]', 'G_8': '[14528971485352230590349794363250096926110386049750225767597870152693660424018, 1904297327253253855092010950714251256576048542600949698225488013380887123272]', 'G_9': '[1872460212020090547738812580380433882199047592153944987872779533097449108405, 1050028441467464847251519931201877169516412441516175018389049242015092571955]', 'G_10': '[11980317720208996571394885284765247071501532356124684993060302064680700657574, 10700621617693320387247813108799516034764835237401693516249679766238339129556]', 'G_11': '[7519012670832835960842013102929911655665693753810596572762746009069214941207, 6580204644250930805233668508054151735742450385125667021315609090545442372367]', 'G_12': '[8740347463300012833255757815163820315566355350162804739356154972807013126478, 6878720557185961774301073123062997859198238004831462715280864657420103173179]', 'G_13': '[9256156000484238232032536317193167612577554396576317913394095279994842525845, 1230836494996452725430807827040396538930723162454738106853503050420644209617]', 'G_14': '[221493158231659188880136239809392097499324922437397217295736344549681562029, 15625903150542996260111592754380132001398863968088920011525023779815628691240]', 'G_15': '[1701494829792952871769203626811749591800648037568777015963611375165393406310, 1734678596030349334659350726979566968662575356323699488709388648664247424837]', 'G_16': '[14913939834240638979208156522110812013971811637059511143914449488933706653058, 8107538778217217736118178571967805094147838106523774466900859641939121393298]', 'G_17': '[13841563832155296510081698235139515710841587232451146377266544663426187329841, 4025378353195952484155934595292934341596115618061593354230462658765619617191]', 'G_18': '[13759740169936799768143701042750325033278400881178991610522016387774912153473, 13277900203962018109375620861066532814852017585607018125398436382665481136761]', 'G_19': '[5235313690634308580173041959202416950275272238754271432787916652535807786091, 13116389871956647897743783463688668413085332910079078573726988432858655815287]', 'G_20': '[4919583705457406735385013597327692553358068311120142715514815007287977285040, 15911469806654082340054928964808437950478083261082596247427833127776352472774]', 'H_0': '[15980775192933802419862881845412601605910154890213130458687943786463212149106, 13937593697841625182356810462590481594559165866714442506495049721396547349135]', 'H_1': '[4989877824553855553856837405476816670428945469864513586730318145841104221929, 9050471246614613314153875688183199149148417905004484990310980224678347129286]', 'G_0_bar': '[[7971051581448161967865219573179286673293962435228926411499851536682091492244, 4751140960263651108928533267001328450534337559007028932144823191563623700688], [6672721013862375515771410525127886252666705501526594138734289580460114705950, 11768333161933305653331366798142771274699938450883807582598884712777751600730]]'}</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['G_0', 'G_1', 'G_2', 'G_3', 'G_4', 'G_5', 'G_6', 'G_7', 'G_8', 'G_9', 'G_10', 'G_11', 'G_12', 'G_13', 'G_14', 'G_15', 'G_16', 'G_17', 'G_18', 'G_19', 'G_20', 'H_0', 'H_1', 'G_0_bar']</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -582,6 +600,8 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -592,21 +612,29 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6253068589383177844216241461676510586469219578367249168607172294752619049484</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[5030557562146845161479439860771818388472831928695022023106273570317117541622, 9085157353674779229262349402491725858622143127051840606098488558638857478365]</t>
+          <t>['issuer.private_key', 'issuer.public_key', 'issuer.tracing_keypair']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(153902397011707912800792916837825093783367129234971418072116462951951611773, [3100420735259115088963838174539445862683058420328359021527116732634204007933, 14007316511706325411785450462415225005357473372981735087603335422611272100734])</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>8864748536889999799691299376042161644027375132207799879583929857703225127576</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[1815108916623214808250963041440158734609180230085417398038038518510274520626, 6607669420231912780853383429385338259382321236967793480408477871000050263245]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(7825770666122329674511647099707558769657218004137680703538202156021898024343, [3888421086937002003631990126601796974553196077240162480658755609336087127965, 8494350136522783992426989729705231193493274153412618844511381402582180662474])</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -623,6 +651,8 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -631,14 +661,22 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['issuer.public_key']</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[5030557562146845161479439860771818388472831928695022023106273570317117541622, 9085157353674779229262349402491725858622143127051840606098488558638857478365]</t>
+          <t>['verifier.issuer_public_key']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[1815108916623214808250963041440158734609180230085417398038038518510274520626, 6607669420231912780853383429385338259382321236967793480408477871000050263245]</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -656,6 +694,8 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -664,26 +704,34 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['edge_1.tpm.private_key', 'edge_1.tpm.public_key']</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>edge_1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4807504731110562149360709256095642892863700038971549121917519296375835546999</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>[8087747434806972782902637709086024849590330229831187445085005045591878276947, 12107798587685333998175032264680607979269258721699858004558702559141377325746]</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>13558359357015322622646960943183505287144123683117807615102692532904226701097</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[11083168833363219800202231373554962236352236411583827219295995120368322259755, 9669418144273530331758448472813920036868888773156429748469339842975674793192]</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -697,6 +745,8 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -705,28 +755,36 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['iot_1.private_key', 'iot_1.public_key']</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>iot_1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>11478570448517470497764525395516445914220584223276466800267867266743376108385</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>[6697695544284846080183967486961484891818792499408623752856568111017074586113, 7078823436024219684867090780117396065273336650965949060067625150351851405017]</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2542697409418059414875606857058603968832990632388535719774487894162098390445</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[308483630732655306244325645783603220656062302898972542721451735923734745702, 49418723961036868853905621461055285272063476705989637677292987117512378398]</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -738,6 +796,8 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -746,28 +806,36 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['iot_2.private_key', 'iot_2.public_key']</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>iot_2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1490656657824237984199257293182744203669986708769655291957185286341565238297</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[11072200970616533433594690367457635974853991574578061964305354946783720963952, 15969188949720159440152266266791148648708754385546135455336307987555682604557]</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>14983512233830403859697659172477102961001356666757983541784686835294670278672</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[6364561891814152148046331929516649503275020181080116398684486263689662160170, 9095883127293449494943673310263667402230327821431332889814278294839547587487]</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -779,6 +847,8 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -787,28 +857,36 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['iot_3.private_key', 'iot_3.public_key']</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>iot_3</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>15927415576546664928200209023364069039372505063096306555557917904371782951207</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[4428528976228473051381247092999767194872573051177245474590461422353630459350, 835558960771347131774071645332515199450441952990349733837330843168992779774]</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>13735407230296397535103783872837562578989516643388874675327643245810205640008</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[11570313355618271239139446510989011375793367164060122749250697600285661422876, 6063313324954262508972983268022562303910493521076060681875689466905946497455]</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -820,6 +898,8 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -828,28 +908,36 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['iot_4.private_key', 'iot_4.public_key']</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>iot_4</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>104821787616255957080033983489841255426816107508522261239490383410497903201</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>[8792905700895639088979611257977580900755813621914200618490607528663352127462, 15634089891105975054630250303234105608699908429922368414354000986534254074690]</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>183095315402624879194736703173913349931651098062951562651391388754937114068</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[7170414986095410626256877251755718854815871723265806986638745005344154034395, 8534338044818945920555608437686619809111072152866040961238922504365545458430]</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -861,6 +949,8 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -869,28 +959,36 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['iot_5.private_key', 'iot_5.public_key']</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>iot_5</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>3595078333816454453768589149245559530236654346748312660015961797281396793728</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>[11255735180128831543995872446134407327118454487889747855511742759566586857723, 14894400548460639007325547849274724266664745583009490756246576978310009557953]</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>13886574596858483452228847935740433262447996510376105766769544822391374160969</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[9504669359798925227903222219172416553110090482602450685347358566609912571882, 3447119895986588045512875454405245728652436698482140430764319880954106056859]</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -902,6 +1000,8 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -910,26 +1010,34 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['edge_2.tpm.private_key', 'edge_2.tpm.public_key']</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>edge_2</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>10028849407269260028288921194160145687752052865034017771092309913150028653825</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[9940284903865699253933139197152452632367228237962448198351969030173796859451, 1666561549203401062241367622831271176764712612716132049717514761204521080616]</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>3100977050505540756780518790970707919867715146686515540615462369050061688866</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[9059889867660425409578795208366374926995937899660227127797601344555379354909, 543744007287257879105182437086094134224718036002775308941865981823137012908]</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -943,6 +1051,8 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -951,28 +1061,36 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['iot_6.private_key', 'iot_6.public_key']</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>iot_6</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>7937989973213962791766691241035618547002385604201268671733575546962033070415</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>[13892642268922533416217023508773283078960135202666641896091192697873708820657, 1074963519802224949933902854732408502692439211207048822767247974941307012108]</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>4850882610499432549033727564456764593322755564163238406358228193820742424531</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[5703037286768663595655591690496528309009040341890779613396669921504394222105, 14190152639874080250599221559773510831168142213222313772932714270384100929411]</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -984,6 +1102,8 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -992,28 +1112,36 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['iot_7.private_key', 'iot_7.public_key']</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>iot_7</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>12872820304367163734105021308585133109618045804403701638449881892306957863765</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>[9965807449815301841935094840168438693255517146409810160449404428694702693227, 13394657601200764908414007758790700863954360559361242858100835337648655157497]</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>9576335012546535607657373951504367254828285970827861935237388524409971646187</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[12800568839716321227162723797436247640658143220357398910616716152990736734059, 8112174299406651530773693483664368375980666372135000899549676894551059014623]</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1025,6 +1153,8 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1033,28 +1163,36 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['iot_8.private_key', 'iot_8.public_key']</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>iot_8</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>11778432263396829765011039294951152642624526120619874587997045616120335395359</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>[12490590816038388381181836523539793712488082887767648424624831568526409736689, 14642737395216098114137005748098163913240640567654553383959415334313252999277]</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>3547508068161572660768054873956625673036347098862925071892432716856199985388</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[5613801045035925636212610069610318625902138603503755447461056978000597601254, 299338338417104131221236794635095041632082903192354167651939789126067565772]</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1066,6 +1204,8 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1074,28 +1214,36 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['iot_9.private_key', 'iot_9.public_key']</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>iot_9</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>8493596081689142780617043955320559760248096377523189850373853073892794696892</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>[15888370411423068417051626233174252815008387449686065645730375886012328147655, 4179731750784429383702601511201704313385614435526362522886271262731634473884]</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>5760959657134007811390158619949931745622425335950241943642711108306631109467</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[13815901301170363246190524946078310294870904966107805846568817338988211214674, 10737297489028962641886663243089464750104513901445549757123035779205358772904]</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1107,6 +1255,8 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1115,28 +1265,36 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['iot_10.private_key', 'iot_10.public_key']</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>iot_10</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>4473534471633844161992391485047642244822711693056794830822859031147107584669</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>[15554537732008241277722016723095242498789763395633415782767477024627851739236, 15687516092714622430845950925079250284073504312366467144140209438288598961299]</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>14834954231947475837510211094406830573768364021374866809394009085677822572857</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[8828379179888399136353522136300701177202954860534554940114768728127133414142, 15871496945755894602906648884770500902897640951111329035954421063459138148737]</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1148,6 +1306,8 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1156,26 +1316,34 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['edge_3.tpm.private_key', 'edge_3.tpm.public_key']</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>edge_3</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>10282479956760830300927437177613483272240922257817932458459985632956448635813</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>[5072871981532788597953281705244230535230576158564773559982967237991638262034, 3810126545735442118905171617103326438282340075761037398422292325472291887101]</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>6460930942291937327613376011372703821848276958985612311601868132547625793750</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[41879315604052098680334473402011085572382539084163810344858354718315433429, 8361473348469034241873101684615420112001208172106936202383139681102650741739]</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1189,6 +1357,8 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1197,28 +1367,36 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['iot_11.private_key', 'iot_11.public_key']</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>iot_11</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>10700170235490094318435088757896721166151297563309060325040528926713372842783</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>[11561224619192446352170753593653114211690577063467928879219239687600325617398, 10116362584272806132848982143564713685182242563430290526043428613903520045280]</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>4017581753000335213246691208394062038797778150035986297551640116817499517777</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[10107875181237847314009748201524101214071447790850213426321071768326364379590, 12545142853798155475320055532362750469498830825769915028327132118255247144706]</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1230,6 +1408,8 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1238,28 +1418,36 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['iot_12.private_key', 'iot_12.public_key']</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>iot_12</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>11070291249858917168185423316600174721972862167795896059529594347393609600256</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>[7045542770122071391679637940265662146928126646867053644018727346281479262917, 12490309236196858908307188669633783616390317110004877192605638153371646264426]</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>7095689967712856809889667990807533148501746666579546883767019559832728395624</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[4484899120513578536495903919700360991248700527336742414466140202280320751757, 12116984320014501810066720902498966688850684053206211753367500350417524927174]</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1271,6 +1459,8 @@
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1279,28 +1469,36 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['iot_13.private_key', 'iot_13.public_key']</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>iot_13</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>13940378687080949062773639382085942646700779583175112309804103570316558702291</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>[15965812432652424331992944690995195672870136332054521472852847177145928268005, 2722291121179090134902363329007502044372781522993830800022181934589641848049]</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>11200848176563714219595127438121344870325027150621658367481462445096881996743</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[52580345563367571920051492668453646439828995556369201668921234943046241884, 12694430650238574723867309846217118412956568226949934759341831234160973760371]</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1312,6 +1510,8 @@
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1320,28 +1520,36 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['iot_14.private_key', 'iot_14.public_key']</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>iot_14</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2995310162292976159186942361155327387754142468516518437383256412444159694070</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>[3538316090863001859498179616390622850519902216444568804612088062789161939433, 13089876232487672006654121255646717065656310646540163803993586162261774608003]</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>9896486326364394278497322561183571022781488227092518260990631562135353082575</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[12088273186917878944025079604109830460376221919021200276176039598208196497026, 2038891995721222357660101979944444046321086433151025196902718317240151246232]</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1353,6 +1561,8 @@
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1361,28 +1571,36 @@
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['iot_15.private_key', 'iot_15.public_key']</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>iot_15</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>6486721077349665915472665295565627874554160328238017271301880456857047622171</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>[5106101002052592825349446386677857793329754375519710973170662243786715027019, 15182665153007468393446654783565990938066646466838739017440071714356023777036]</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>5424824285932854378968509801322026883610952727082770700609441532745447199059</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[1587106621063733718114366748693492017752921948508800545092788887022809119885, 2481230997313306147805978905349982938271069247641039498417014164721902041550]</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1394,6 +1612,8 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1402,26 +1622,34 @@
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['edge_4.tpm.private_key', 'edge_4.tpm.public_key']</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>edge_4</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>6525565193845061443281822153870022554201823321807293713431469482779733075967</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>[4963616332874289677409931039694361192091967924973959283436810940916475346839, 6180040653092068405978289195414478865123595261785426670136515350039460009579]</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>16150443823671825615965819833163112977343388604386364244976018420565333209608</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[4777011617010001102271536508434923384161599401993715475842154160942280221725, 2712453768501654276212803125067314911086210651890563597020855956449455230454]</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -1435,6 +1663,8 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1443,28 +1673,36 @@
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['iot_16.private_key', 'iot_16.public_key']</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>iot_16</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>11158521922071181958746438446600446936321752411344746820284053076799309339534</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>[14790153625898458529718564336720136643277475656757543423559372773439218582894, 10885803517835328981588008169088954110069944917619847630535545728289602015145]</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1428037476102616333186579628117910458603471950768945601222054326797977619692</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[12030478962514598851338988081764932224632903255633122972090681377925669922914, 3683659887417005554534701903956680066253119136821711579325565469706033712842]</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -1476,6 +1714,8 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1484,28 +1724,36 @@
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['iot_17.private_key', 'iot_17.public_key']</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>iot_17</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1484523698474099658200120397755592214743993131101929416763523347316107973691</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>[3207727804978659654200704892039237897536969728477623309838281210402096559918, 4717868834735261503898661543646047148070741797957207219301210297185002882337]</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2751531198983513058235660934482547087897870278806775401209151155454948543603</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[2190854709827697709497942012473544690630586156021517462322333009231174557081, 6911851234834062924097661145782610860877415582808734732011911409763527112338]</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -1517,6 +1765,8 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1525,28 +1775,36 @@
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['iot_18.private_key', 'iot_18.public_key']</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>iot_18</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>6502975380928651605473943539655384652476451003338638237004797677542253472669</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>[15691915117366881846040503739396657253147310336491041233383722477526824037916, 14042173633880489776996603239093536471860268761523391666126918488413996483108]</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>11656787028782933142153220359969579586514850483872502025655744602368549303555</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>[15314270949381218632075721099579154624200558894161657494674518204928321604470, 9217668214216452102526366939225955140304360307782561555922411641346325198601]</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -1558,6 +1816,8 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1566,28 +1826,36 @@
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['iot_19.private_key', 'iot_19.public_key']</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>iot_19</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>6380613234125446950837890052148133527663414825062368184376710817636835989735</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>[13372188284013803403953456901446432265761361772690679300718688599810350015781, 1187496276061323124617704201328888550786022318992534928994635184366910333046]</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>14150370544770604447567041892284050830006518152709162699198587784684632497061</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>[3234932253808193012656725094817085932519502671949439217483610744155779293422, 4141734616703124686173416242353779648583573931947279952353508097873564757168]</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -1599,6 +1867,8 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1607,28 +1877,36 @@
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['G_0']</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['iot_20.private_key', 'iot_20.public_key']</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>iot_20</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>15618518557360760632600157257183953826801940287704484925162001468225765624212</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>[8352480842222164862253230692963317846912609129562903637475493222609182518678, 14103770228776161496098150201217229110974285947025394800815163535697243441732]</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>4632137960189921600807696893333921262301922283506860705506597601061722221558</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>[10857974081156033251981062551942922343123940869298372155793299173928632470003, 8383740557527947037330135767742884940264528620900523463544880273716742367825]</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -1640,6 +1918,8 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1648,25 +1928,33 @@
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'edge_1.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['edge_1.credential']</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>edge_1</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>([15568551386412605414668199858778827356705685773787214742520022931148782686146, 10975573051916945260569507346976735150563715412691983154675536887258829450723], [2577706119028849281382476975274232228298906332938338534263641243099221384934, 9643259102281739467826714759411999809141602886499195327735444632780048162999], 2752078331472952909785913605858656700603022599869657882245775175873359876060, 12259964326941369761423160166754287189200003074202064897)</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>([3176818980558823101894370723534598212045119292534334428582936596556096196353, 2124866614276327647293685154930106719669720823999069053564348416849441317892], [2203820219430446176819219165995437054684769398245155941577697274060951281314, 10997512038205886349301704667431174778672134082529488790137402062171447931693], 1736015813469586136676047629689576897108087972631697454019036770341545974967, 12259964326941369761423160166754287189200007214380036410)</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
@@ -1677,6 +1965,8 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1685,26 +1975,34 @@
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['issuer.tracing_keypair', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['edge_1.tracing_token']</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t>edge_1</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>([160163747454802040073178052973500830878172713919572753530582589072297762597, 14769545325534417241698882374551231729919853910301394536460065429563447685642], [8767255917317792791765532039993647838915082171391416614901225463399423334331, 6964222159464493715613964124440043781877475499223435682712538589818281403721])</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>([732028262434017082168575455180858147102107181137089390002535276069583037684, 15461720976926335873260812913232535674070134191975591523517251432415689860769], [13104443309259338577527458289468098108499034536990140054172973121148549278219, 11306500014540963138883549747153731003631480048297938322553179535493068009984])</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -1714,6 +2012,8 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1722,25 +2022,33 @@
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_1.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['iot_1.credential']</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>iot_1</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>([8467469758115943897420118554243459957059530505981429115100091655387137344315, 886978946562045496073475902581843631471820018292566103123326593933752904680], [1898604474452142199868466012894686326462888122237242411057716498841350998527, 2730460515653730390903815476088456962430017457316778419435334360806168563972], 197735538326075720044363759062098329013175968641419782602851839034133630592, 12259964326941369761423160166754287189200003074215860139)</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>([8887138426620285507609715665240372282164577741419303054313847602553395300067, 109903210356543107556339524999641586565398561985094121845542353044019835163], [1219616066654272551831112269484794943918521066371387216359576893264571068492, 5780109072107514761958681129212217783453477753750709560659194118569608025618], 13914693974523634183846327667663840878449180421317547898828409862679551590371, 1817959149270067120516547892139208255712851897646078465530891748475839481)</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
@@ -1751,6 +2059,8 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1759,25 +2069,33 @@
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_2.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['iot_2.credential']</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t>iot_2</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>([948224532993836143965656887632581223573048653650089193984822718656224748308, 2559723875773973800578286482968867918650045900854438206910609326878207159999], [14444716670031769213854140386596532412121488185845262869935973678245220743617, 2627523650073494919107237116326741332974252840921032360284233148655574423405], 4933243059086682576010577111952086370883958637995713515908967532617626468755, 12259964326941369761423160166754287189200003074347102910)</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>([10191790596060788446734817059527540653933854052770439082714714929136834870043, 10199055455062426354341819850985369651065955352927257806772147248712717658849], [5822633730900575225526456760767020995275616393229870340032874807900426620451, 8384840967898874691280629105521510732721598222538056897116989964692324430582], 12234803856406144169913086707530961484962749345788921944474787025003418529607, 12259964326941369761423160166754287190352928719136562178)</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
@@ -1788,6 +2106,8 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1796,25 +2116,33 @@
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_3.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['iot_3.credential']</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t>iot_3</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>([2683277570203394885956055533614001357016474012575854807097402897719168909565, 13171257523747416199828133560662054453112146175930925963562846017002762833522], [5715374639172605581514163451302683602803250471484298105341663268279337053118, 14331711395583500195910009773634438313695154715278095600204475214332033774576], 15142122072814813559227546990227596142125095918144689722009205836643293039296, 12259964326941369761423160166754287189200003074180217301)</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>([116768604203230358881679704488285356482570331474887357392919000989709379653, 9221438297841630629426302215688519228223094166846783866936958109329026283192], [352671959222874380023299182094520905857183594795828733109377414796191028732, 2359279172569120732484561412048913116730887035125210199891764950101504451789], 5722670086967094451633900977608757581626589820095588699211123375668173499080, 12259964326941369761423160166754287189200007214646215838)</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
@@ -1825,6 +2153,8 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1833,25 +2163,33 @@
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_4.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>['iot_4.credential']</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
         <is>
           <t>iot_4</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>([6905762621105159089952751884704234260125075896861315640311352276447052581552, 15545070280429508281737905472967545902131611317865240700000569559889082013496], [5784200839886624536841406741376980312695303737625509149249483264350812000428, 4346268989781599131227053236793760307678491919309475921287806251640715582499], 3311832870027629566658425988432113174662409689432146333871979224654684723109, 12259964326941369761423160166754287189200003074261066621)</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>([5536420643777332790453860725155459693588867228770653542660936154919579113054, 9156365152890597095439866516922283229537154021974073045499942415074298040096], [13516012481644265661681500511742166071141782289452554687946156603523606497214, 1632639790239651700350261663877342406114002661919924765905968700967312631521], 7278734543847466209361094576906299492171535948433500289868785415045161704815, 12259964326941369761423160166754287190352928719023083436)</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
@@ -1862,6 +2200,8 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1870,25 +2210,33 @@
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_5.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['iot_5.credential']</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t>iot_5</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>([6542829607073116118721745505691681073145430881333708083006073111323805617513, 14385052514466279138469068440212730317646465490922790173539294841140412248229], [9016616363280908323669623039964207196830787728672705356908990270853388745814, 9590227150977963982823185874393021603201330390059245145228906811653984448862], 16090775776015130201572983559680286466117444712920058250335527868955950880385, 12259964326941369761423160166754287189200003074397799040)</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>([10949685984142536552934822522012008962814628003976413231823565210867344170471, 13387550302368289513542249829982026082390830344520484375017937775302739000086], [9176709435739213864623660941320005885540330544635868591220851709187688861727, 8073703723777113637841176162671931574642413321471397349328431954074760089663], 4669595248556406792989023235899227431522196207325334252094918269586592690464, 51118535542197082400281672913063095564126606021362220660275869142618)</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
@@ -1899,6 +2247,8 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1907,25 +2257,33 @@
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'edge_2.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>['edge_2.credential']</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t>edge_2</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>([10179174668430052863598958896359704443561535463637695519428491568504166548390, 10834452217467251320805369498390483089440741518922077152919670916024059390850], [5325025709334292754484712710601281951513079813515670920891754091807579562822, 3107472135491280705559847011746303265100181668877022103299683871277150868984], 11574346790966581937480542626787069941493367068562950777625178931092649946876, 12259964326941369761423160166754287189200003074118246727)</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>([1114485901782954566914276340600111905218334604356368395317918699277558532799, 14953224889772922538803540681353367621127132652970105858863197938770452177869], [8173174085805804734344271808287619775239429173590846795388579537044398675711, 10550708389379623205766338648333202095262743175003512654924767960534753948168], 10529928942540935351628980491698008073478200426309411241722669016456238163773, 12259964326941369761423160166754287189200007214713667671)</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
@@ -1936,6 +2294,8 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1944,26 +2304,34 @@
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>['issuer.tracing_keypair', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>['edge_2.tracing_token']</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
         <is>
           <t>edge_2</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>([13541148278081961284279681839855531241356045509680223872675517899649045072002, 15025519614588754194761043225220545576433266287768715098178678574139781181326], [5164694667299269443289839515636376692105262122625397243950335770600794839971, 12054606962167503081066257278569886793738146269340583420700007451692774014341])</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>([9945367500176102794940123894464144297692013786125945738267279728727068134235, 5701150521930344008350073220544890487926780862912866025323837044756937952540], [15901556667038392808079618035223919974974926116965336977626206216720548491370, 12687786400785155512997492984596321756211340365940873483171498777099903195309])</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -1973,6 +2341,8 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1981,25 +2351,33 @@
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_6.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>['iot_6.credential']</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
         <is>
           <t>iot_6</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>([4821243615195125439260735641481380007344372324416864248781414395347152117769, 6561215819353218605872865009245484038214748842746087687553125584019612400413], [11527460243620039362985558093226962788188672048601334910391557970496336551349, 13202203308306249026386373253327129190037465849134624864648491060970877309498], 14511646919070298276408138802717744574235532638541516554973242333238177996196, 12259964326941369761423160166754287189200003074341186030)</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>([9156726467303292388632160412638794521262012950374624783524334671842866481340, 6468178626301751594028009293981291036920488187619903818151375462439007509009], [1546926124631654097905336790884224780615343262241413911422047052003310634563, 6670292343868320124721723399009334940584234747527987098759851295402042118766], 6891662974243764015517364185401428333055567658759274853505061732403821902815, 12259964326941369761423160166754287189200007214782936397)</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
@@ -2010,6 +2388,8 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2018,25 +2398,33 @@
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_7.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>['iot_7.credential']</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
         <is>
           <t>iot_7</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>([12887394703170956711622680473018476570286152555519188637548083089198708676413, 464618294912912883065843750617474058715879978336080001637938258528878025272], [15352895099496656611629557172988156982874801137380611748404170899896103285917, 6055311412326713992715485042628441159202872980055952027465495503100791419592], 2389580111817579092534882579271121847043031037527808892966845978843258131745, 12259964326941369761423160166754287189200003074127128188)</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>([11619473552594622301974395149979666376568154756176864775234503978820557424641, 3072887922831721966843690659717320459605419588696932217875902616540670983391], [13462965497894015823812283826699238747759726034827210997056781800056684988338, 1799451608196593442502920468584741958234088037868226496250745203695743604830], 8631338127933867584534348111109001791373247111566982175539688522347512555966, 12259964326941369761423160166754287189200007214494846050)</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
@@ -2047,6 +2435,8 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2055,25 +2445,33 @@
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_8.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>['iot_8.credential']</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
         <is>
           <t>iot_8</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>([512869105979862746156816449015112863867966714508782332313898470332528758431, 14131638336682886742501984606999451814098252519527963030617069974747466827776], [7643184127787204708643116805152373025376601263375178793385873792330460375871, 3263074246935198410924949716114022348361889389874825307372229262658076973353], 3014431365373635761462265213745787527401788311123888898567633220172479087335, 12259964326941369761423160166754287189200003074113010102)</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>([5167198653987742411863975540337865369953356319550316120360166643204703907252, 4624507705936184614547888146840280357939903999053183142505579884415041740788], [7121020429513070672612316846797950285794446289940767282276411047897735001981, 11763772535670723868966410976775986911800500993018936104649973877051828315158], 12870356719567334285875188921876069423208222787680657329450566571193043049047, 12259964326941369761423160166754287189200007214746640749)</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
@@ -2084,6 +2482,8 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2092,25 +2492,33 @@
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_9.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['iot_9.credential']</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
         <is>
           <t>iot_9</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>([8623936956026106243606742968756311596767475598637763746093747823961112644964, 3973884019426186701154781834271829135220630779722751850900247850162811487025], [16099498688161781769018839066533121383773255987299342503378184544758506688147, 5778403347025906989136777309478778220340488151417446996302808882371471517634], 3119420564357963800922516754720698991949018475119313375068924411494953746560, 12259964326941369761423160166754287189200003074087249216)</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>([7925583596466747803267831258792790433376388267074311079713452795309312249881, 15523948141988914643101975769800949861571360224270991337807911124335328275167], [5776377002377599009783543431571729427355353026418657372069021808592496207736, 10544872982626886421553648784873501845662188666417723480737150801548707752871], 197661861425595630997825823533913010711372451965142519189832244636076618676, 24519928653868480628289974841283679707660236730437519197)</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
@@ -2121,6 +2529,8 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2129,25 +2539,33 @@
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_10.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>['iot_10.credential']</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
         <is>
           <t>iot_10</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>([8885882451707286977987248058216214465215729628011672791186283844426209870979, 13919136391898639517699633039046228774809016175174528211740310171226336733236], [16072257239108324238923000461027342028966445980657831823844562390418929251131, 3529680956586553002694967752021053834786633174299295576017656545357685442115], 13192555570534772171070168654062089069385835455457369260595878513370228626892, 12259964326941369761423160166754287189200003074406525312)</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>([3214438941137451885754285850605629417684082639142037239477355590833926727543, 367722413988928092362925694257843059027969227133118285782076649925276726032], [3745394964954758449011158495699540626227638276504462615063657981994487627989, 13767453480637342424845530470035396722019169903460703831770013347545174635599], 1915075940351379688298768209382831714488332230544266246910657374120686098226, 12259964326941369761423160166754287189200007214617845792)</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
@@ -2158,6 +2576,8 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2166,25 +2586,33 @@
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'edge_3.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>['edge_3.credential']</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
         <is>
           <t>edge_3</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>([1191371442666216995624103765717671054993381442253348705662497009366731044344, 12796332861960491716230129220840490237150855005835623033785206698133801697498], [11496055661110429696099606351342409545698410783918837473788389160460369869067, 6228351813943296638394933142089473369634224673680747051778641713961122730396], 15720719004104633292569334299309121309477750456485078157672725003387543019487, 12259964326941369761423160166754287189200003074398944566)</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>([12335725889613082881905817712641334016711314508090056530377827178716630559016, 2929678300014951377996581122784044388400616585911901941454219162208941984889], [782216484406630622935223598717989487353809655914090680888886577886575860030, 6103508210171630987927799965275573218623026190451514689032709827683640265982], 10779273513592440984916897509450869049305841546086975629562278645916004040942, 51118535941920959315413178195036198690239770197120275682088723945210)</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
@@ -2195,6 +2623,8 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2203,26 +2633,34 @@
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>['issuer.tracing_keypair', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>['edge_3.tracing_token']</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
         <is>
           <t>edge_3</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>([990624987602045764904224243420724836704159235604260286385051930699663698340, 11879679724582780921397547709349448745863738237092810692271750256882719094110], [11300179837146688071276798166827020070555636733407614427637815715709835426977, 10485058701682072033196074097235946707840107070207857187622776906773266024496])</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>([2156528735522759854374802877451728607248022950734059644946809967125165738461, 7932891585778727946204551293686634669246960245341966790398995678693904029287], [14132526659392865666733633717836005074007086166129086484734112193140215696788, 11257596106527507446097402721405789201297591946854562806504690775486660602428])</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
@@ -2232,6 +2670,8 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2240,25 +2680,33 @@
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_11.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>['iot_11.credential']</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
         <is>
           <t>iot_11</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>([12038471364308215508424975586926190070378759517362329689048763325122377683523, 2985925034072621125592564569317018489848738391720098523846737945475398476157], [9349419919194117785512768513323930819729391800132291814166641616919437439413, 10066080954461122278209860284526326578423568342459708555571750744813081956656], 10203974579823055439051971998535246054044661821047189779919101707797551009289, 12259964326941369761423160166754287189200003074309120635)</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>([10318184912674824362426097722003454527364264474475985870166078863721087562185, 10694816610843419659407444403750178780068044479980174036848837720260892670670], [4330128911645096506574232362364651465901937360791598194297713619471196922885, 14839229131813407977771713947956493054290682211151457332567614623259641791904], 11623958495599304066482063276202041867816868881778615650886797631674848216881, 888555482439704736159081339556283813033431693)</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
@@ -2269,6 +2717,8 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2277,25 +2727,33 @@
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_12.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>['iot_12.credential']</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
         <is>
           <t>iot_12</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>([32961633907851504134737775472684036826605541711997527570120147539551059943, 14206421405921293532757213101660784137143300147237866642694451609887885705485], [9734475240703159961710157300105054472222587150202439021896286698982662115149, 12392429341693352385920296922738208712819739235908026903589474509231900725930], 12894825792652774381496432844965571455335287502607160066353721469734019703731, 12259964326941369761423160166754287189200003074275987733)</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>([5794274050247812606847214875065190492771428653170673439545877689119747013090, 12335361824799032819788630910978068605245945672952607549812584845405996895368], [4046528260172929563328309243144807070803788470342651164392598405577564883348, 3138612144428747196423902891978246307941707494844174114157162945762192448927], 14729332425938342187757933709334738462912972803039606061481775850707833785518, 143158896486944925667497959365990872758328803263046619751634488328)</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
@@ -2306,6 +2764,8 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2314,25 +2774,33 @@
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_13.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>['iot_13.credential']</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
         <is>
           <t>iot_13</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>([6388931590566814033446801748093004066777696945762893311616184044547292657131, 4329228539679429672606167387952998923064610277975098953833564664231113023673], [9018633574902236189563390609386263732672669914245052070977251669139191769124, 4392439633731184314823860184077789090939948043774972614076597007577728433283], 9040519357866622423289507586741201820003411717162314203289063806193273762284, 12259964326941369761423160166754287189200003074390490166)</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>([1740977906725151302699337993391551537850116195629219813989464733368647653882, 10554524945435881132958502472532024734492152890192545547064639578266902349250], [15657859249422058816507843469949708099165450071125500977202858145149565616833, 3990950330233019166061835194687891416703421976369976312350634642893781541891], 7063561433110197669074849182100711574585566514780306150017417912374767665578, 133420258558080)</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
@@ -2343,6 +2811,8 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2351,25 +2821,33 @@
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_14.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>['iot_14.credential']</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
         <is>
           <t>iot_14</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>([4256051943339852510478116346421167033201226050476328514065621587177691690430, 4964296592001428887940177410706396088916966778602924388567194862740505815757], [8264220021657654184360231469476033350267381196595182431484943684318261865645, 14088906069424630769438185056866699243699646818157242145418729533341043767033], 10253554442623975081902324478734787957347376222206805361453307827030866772723, 12259964326941369761423160166754287189200003074249180036)</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>([11767512216442770369903632390103490193132540415052074002983060600220189731704, 12366018334252319610949674847081652437044466889319476707607936875782798303599], [12648807764180985753356513721162268556157822772538425193141377178198965350553, 628293847559769946457225246126462556509991759726742831272763073961202691725], 3550669352548919304694956685061293736936575979256204748025375122856887834745, 143158896486944925667497953379147979743067711704299620248944865455)</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
@@ -2380,6 +2858,8 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2388,25 +2868,33 @@
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_15.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>['iot_15.credential']</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
         <is>
           <t>iot_15</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>([9169759304772614162900401051911477177642250436007993343500444398165434085956, 2490556525863911275623876546994519657560739581057878522286650667359767561268], [11391409609713164824627127115569445699856513236800831201407059073387833560349, 584288903448962961466495494675395465210090985870942306971071041960727401684], 287149940104158711931473732274739472855192010149269759252689096966514821202, 12259964326941369761423160166754287189200003074209426462)</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>([8210523346087756913003419211038466899303098368716930261747768373415034050820, 7397456283593332847318838148673744068484691957022392597366732217297666191028], [7615339756772859618779977038395147414872127040572148883828165091590033945657, 7974246926070858797466481429270066720461874454616341158532814810052839915237], 6267398285316887957184001021581003394295389801565014435141664319433116552090, 133420200672669)</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
@@ -2417,6 +2905,8 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2425,25 +2915,33 @@
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'edge_4.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>['edge_4.credential']</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
         <is>
           <t>edge_4</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>([5622035975877603718696748967827262593781008692273675442154120685625645304970, 14392414049766191853620881113795994188212496194331605923531651228767459505392], [14179768156302437578155614550533656682729864988088399110851122899226416708973, 11973192794705311571501009432684604459038139223168078097038061408914432948775], 13048899097370427884511981078428353847497295624335150294024060576008284032387, 12259964326941369761423160166754287189200003074424751033)</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>([849065492379201642958479367775264922314400198369016283579403682298293771918, 11649237996039170849316605779929445155621272827860996639265583087233285892153], [14616515213126260889895249778043603183304662702846445611349054911794993584487, 10708092369758248092792680405423482937543800559767496834224732768594112195188], 645143874087984257065842718832260625946622971261111744556267519083782432934, 144804401044266176047916532296366929166299800784957863641683629225)</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
@@ -2454,6 +2952,8 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2462,26 +2962,34 @@
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>['issuer.tracing_keypair', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>['edge_4.tracing_token']</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
         <is>
           <t>edge_4</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>([14200105681730395067586448819695301539857989018452968012212370005072753402629, 13822358206361752612631902428025317256109546049207910283241485210103361686521], [9577756057085295417992416657193425436458822162593655931921927563247476726208, 1826196255285571989705185421369090648484465097714143530505408372220602888679])</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>([15272062221858651060779475559600838931298635910990514074995412666682813352638, 12614263827270356797525298810666446736198651588805105305814381966988857329775], [5733049031176728292188363220399368882050212290045934853018230101263225688269, 10474059738254028012373573466326831891227001258886885098118274429726237940824])</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -2491,6 +2999,8 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2499,25 +3009,33 @@
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_16.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>['iot_16.credential']</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
         <is>
           <t>iot_16</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>([10582031710162127165689675765225113645133473775702344296363598388147017112214, 15108031220178450892661557608180541255681846880020300482455022148001539211869], [5325040567784890116782760552364123606306188123812412383808666150463848973405, 9280563824858637796791077117684094379048499068618390613367374073272595528978], 9978646753356453487857450301845442640418309098818412109126378254266032579376, 12259964326941369761423160166754287189200003074302014718)</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>([7233194671482490932258560602916473622540063444725941210117652708758325437491, 12188406200446112932464110667686158605415562783060248501069252363931520857526], [9314707672424358259467682407817567818752781940112083764073685696868494086650, 12563382980976115368025581135766742560922092698164697550709920586307956280069], 11312727979134172999748357950245901040463535787543998283106603159229808567057, 888502387756602646152532473573147759971678686)</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
@@ -2528,6 +3046,8 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2536,25 +3056,33 @@
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_17.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>['iot_17.credential']</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
         <is>
           <t>iot_17</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>([242527051852493217153128537343648826767447457217408792660818375450505846504, 10773595743098971468659210918222900830151023012835801118599331885129576362804], [940922830924521574726449964170240701618282875751582536444959651412608859213, 6891999414182439187923542945226504635288578914037953642224995385266770719116], 12238123393023523384121088127363042267086449779887475108231696010082311852628, 12259964326941369761423160166754287189200003074348161856)</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>([8524200877728599788898466987486391922563140658448435305808069687049273537839, 12480332459010947192588394665086829598874029339706045651238667265031480959490], [6131345809416423161552363786806478445523561883349218297027019386197196997596, 10464679046149341918104743677561154832928458672550402991805620211327160834422], 15387349235359637921937624249900835093009540281369640117714487803847081250326, 144804401044266131709652926506854021737680758348432555024484442090)</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
@@ -2565,6 +3093,8 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2573,25 +3103,33 @@
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_18.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>['iot_18.credential']</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
         <is>
           <t>iot_18</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>([12649477044328186063534234599961069844998890295559764127148785172497098276937, 15792300292568702053931952479190317017882730895403607744381977350774290689999], [14780217116544716686805293093562116663047923534349583469926105429816421801567, 1224356747294871212515828707320723379015005202696302192695868552709232811134], 8691893367447015229122966734049163560984416613082687742480033199767981255565, 12259964326941369761423160166754287189200003074018625289)</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>([10981074143138353604526645011096192035988126589726085716027828605537327887536, 3289503170184727751817467763238348231571876777862717391618195350164245720213], [12799469181043384413136245993080826712850536371302529377800291657878345845824, 7818004998967365237289295966333636069466280474031210999827764742867607159097], 15751166814985920478790766291174233746397060588675111826842783249121640069149, 133420045850212)</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
@@ -2602,6 +3140,8 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2610,25 +3150,33 @@
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_19.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>['iot_19.credential']</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
         <is>
           <t>iot_19</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>([13911138967723238568591513095539934867252048641808521536239652384115123675327, 7628528904416411972065189180151183151836692473289590284762144926057204079315], [10612329588323495171230797484446913359201638594430071129427714525234604312145, 12607320730002751005098216007612789870402933802537232052800300548454796151693], 4039877926629267153344495704147124108038807922197611179215803474947531395360, 12259964326941369761423160166754287189200003074033256984)</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>([9154053979723569210921218630540170956250906600075647983352426644231154669100, 982311933074340480056452977232516295022518867540146015445252738983485734647], [193075822623360277272891109700014897916342395507623720123666112585763362483, 13882607946937156652078539721533031566634334093265187786268646656838220049157], 13835169802277342272444965977151086038573588081836497130577871813063901899052, 144804401045798627250518819320994884220740705293781105540909924548)</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
@@ -2639,6 +3187,8 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2647,25 +3197,33 @@
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>['issuer.private_key', 'iot_20.public_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>['iot_20.credential']</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
         <is>
           <t>iot_20</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>([12074885802875504053552437995958364603146819493122441166338939151801209194494, 5287870911749835465529920389861909643828463701244802469114860856723514333510], [2090147905756208196517845507890047566848730995402773964100597190110355573909, 15628645762163848445326965045945536174200058269342888514034187515223550248008], 12151291752717995943968957781797830553034681949056097332660616033680500672575, 12259964326941369761423160166754287189200003074176085763)</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>([5666512226031987156000584894655090981287429859302106066784189485789721723725, 15786228203786514007828451223152443166983740354577048012195221019704775857026], [10798208709753250308379726152431753765895451754459608050276795952565914472204, 10150424371866740035296888910360701492777449684806802252061174689917087665476], 16147274531278400716460837080922309876519653097303716728589833547600606288984, 888502238883067118241954708346757008604887465)</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
@@ -2676,6 +3234,8 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2684,32 +3244,40 @@
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>['iot_1.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>['iot_1.r', 'iot_1.R']</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
         <is>
           <t>iot_1</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>7543365454211245540309654020799967914801733736551892597969116894757096182446</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>[12202090560988338084075669310090439101482124743353452232384917280616464180938, 10257065055911601589678806190003357602215688636287025814593468078706899402147]</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>9173155591325503162163846488055651660092656372054440570407637504740474537292</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>[15766595511333187719568079747226925322080984646210652615849339641606878899989, 10507875508791643242010248898450042978977150774863709625442921021877212215794]</t>
+        </is>
+      </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
@@ -2717,6 +3285,8 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2725,32 +3295,40 @@
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>['iot_2.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>['iot_2.r', 'iot_2.R']</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
         <is>
           <t>iot_2</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>3966412315375853195196466486753664880032172572835593504623400249607619907215</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>[6779794930325926581518241573940774601059152481281954704327226018406112888568, 13698376739121803916019548562748675561041664292108451985099997193974749719950]</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>7175702586643679510998856926224451636445390409753280857065297289687923545222</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>[13728440275178847246222149480969179328106624543623126629174453327550633096480, 5612946174135528930062030601343177327726371713703295981927446781335015665357]</t>
+        </is>
+      </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
@@ -2758,6 +3336,8 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2766,32 +3346,40 @@
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>['iot_3.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>['iot_3.r', 'iot_3.R']</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
         <is>
           <t>iot_3</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>5558645660835808674735169375558580032332742790349550700963002293528729960500</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>[4080303479917535098303203419520935091933892908781242868808320971861162423711, 1976162763630911297978380260274542331315225044802040161604636593419947963729]</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>8458830007287817192732673170023093183106738395743008637285290103827828655935</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>[13028233697223456112490133958368538697058428351322280859692190960660932590147, 3653058956540954041018211409031761689387994792227673959370077272816873043474]</t>
+        </is>
+      </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
@@ -2799,6 +3387,8 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2807,32 +3397,40 @@
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>['iot_4.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>['iot_4.r', 'iot_4.R']</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
         <is>
           <t>iot_4</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>12874884969036255088487425836307832279722036806728312766440178071119576168975</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>[3585018178608525802332378430766957163013747090355120545229608880906433064962, 4261951808770078289481534860901728502475555387781595607836794229007663065471]</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>4927315116632915805147481772120511752258066154738609899470857496487156723213</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>[8735912238004109885643454784828269928175257968861750342175046238265523274480, 9443888646535543798813260624989690715642970975654305663751912461463231195248]</t>
+        </is>
+      </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
@@ -2840,6 +3438,8 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2848,32 +3448,40 @@
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>['iot_5.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>['iot_5.r', 'iot_5.R']</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
         <is>
           <t>iot_5</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>949438201604125074412431065104605313793631373137888391419387494657791123494</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>[1488871822966820332065391487530760279177865124191169136628015041546136875224, 12450226649646180227596082443845623125952252004667823591344959586165705202580]</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>15294127815715004232850575256283493229470297040672391272021084346275259757997</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>[2296816236553264661851288646692251764483095388729271295034835804114854611308, 9935892480171071455129025002501729133907780419589935732234771392084203657192]</t>
+        </is>
+      </c>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
@@ -2881,6 +3489,8 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2889,32 +3499,40 @@
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>['iot_1.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>['iot_1.r', 'iot_1.R']</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
         <is>
           <t>iot_1</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>12022590309642606143125019826510602221586494639284327868949754707073153543691</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>[2568212567690842550834041410641200561618824164720286496061243394481390612098, 13755567024908535156859914806470116847329827389808668858124064134183602398299]</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>8850581196387286526476035572725349584291790693881811806202398233806655583499</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>[8482935469439428834513072060314642722266107750163877757176385951130473237632, 14893109062405194399285826830660070130623969075583811304554340222518096898727]</t>
+        </is>
+      </c>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
@@ -2922,6 +3540,8 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2930,32 +3550,40 @@
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>['iot_2.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>['iot_2.r', 'iot_2.R']</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
         <is>
           <t>iot_2</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>9053493181922828841284915771558252977860756355139590309190801254203786251440</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>[3884000630316441937879365329843440265727326685440362621621628859960210482434, 3155427154967602444158219887309790961503865828692997408085453886224551675270]</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>11515539754869756725570216582540767739502653944373933307772879665459643142551</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>[12650932809330933684564851418228002164295797790461665952296168092487115197785, 9551181794015492220531711223856538865274317343158048730558343713053058796912]</t>
+        </is>
+      </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
@@ -2963,6 +3591,8 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2971,32 +3601,40 @@
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>['iot_3.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>['iot_3.r', 'iot_3.R']</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
         <is>
           <t>iot_3</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>14348380236267016985086564441072103557324284648395943329372571933891808992091</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>[1137601642718470939306635240493890207206199345871101633058181883276811341066, 3236327154251729731948656391565509895903221256724758310591375899490374496389]</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>9198356414998967550149338978055902657539537975676173909457782416096594018380</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[5798043801548327457174829992694936090447414739715702703162805780513868787665, 14121978872363984633951835702049415652857874127008948608351471943557540511537]</t>
+        </is>
+      </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
@@ -3004,6 +3642,8 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3012,32 +3652,40 @@
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>['iot_4.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>['iot_4.r', 'iot_4.R']</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
         <is>
           <t>iot_4</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>10073972229277424423852882877490563503876649910154411943635079084639845568453</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>[12002645413876345304685518606474224485236714198589368421192655874208636419777, 13808945939163703279812072264659461562741730965017677980283758944734491780674]</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>454166402285711847957847547886858825730684348157008050127386565450886492633</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>[4022179854352542343230666338827697659716762366026624686226502501085867518235, 10212520255923859800829631547409135099383263990813676770430676139869491937862]</t>
+        </is>
+      </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
@@ -3045,6 +3693,8 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3053,32 +3703,40 @@
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>['iot_5.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>['iot_5.r', 'iot_5.R']</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
         <is>
           <t>iot_5</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>1982413332149950995352747803862895644786015137196083451106468534670180911811</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>[2630411008172228106387742582200433370540731914204211226094822754692784842773, 6231959398386473140555393747197237882300440458057008164961429685513062951146]</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>6945191773501560888851222086295734977317698879905966804322662842922076442965</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>[4079495787496428332554655524878633923291821025302948745934758449022629773866, 1663833461826272513543260146397343468542066660599582474702894791153506174499]</t>
+        </is>
+      </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
@@ -3086,6 +3744,8 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3094,35 +3754,45 @@
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>['edge_1.tpm.private_key', 'edge_1.r_edge', 'G_0', 'iot_1.r', 'iot_2.r', 'iot_3.r', 'iot_4.r', 'iot_5.r', 'iot_1.r', 'iot_2.r', 'iot_3.r', 'iot_4.r', 'iot_5.r', 'iot_1.private_key', 'iot_2.private_key', 'iot_3.private_key', 'iot_4.private_key', 'iot_5.private_key', 'iot_1.private_key', 'iot_2.private_key', 'iot_3.private_key', 'iot_4.private_key', 'iot_5.private_key']</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>['edge_1.signature']</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
         <is>
           <t>edge_1</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>(7436662103742816079590239257726003229778697638650471798751897577576484642649, 12259964326941369761423160166754287189200003074249253876, [11992580838397253796840087949698439063348103201900087943227100735108194691376, 1255637081528190498166802678147413334786726417792072053793647839279054426728])</t>
-        </is>
-      </c>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>(8587870363718830458059509730952618123305359945860874046815273844095127676923, 12259964326941369761423160166754287189200007214539649759, [1443559274521431983719990034811397770880082389779678787501554392641513253662, 4200922890809644806287663441069558563980431493048503248180482388019577207992])</t>
+        </is>
+      </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3131,32 +3801,40 @@
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>['iot_6.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>['iot_6.r', 'iot_6.R']</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
         <is>
           <t>iot_6</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>13745757090716747400295814601517259703925581779930023598743761286937781300768</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>[12513738205547348828750338150516917612589239377051031081212742549198540265905, 14497697854526648868190515868922455630475748757645646207677105978101342401505]</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>13663481680303138073608490705422005457119755533626240088081605686652588294353</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>[5652550691628576680161515806308035388548765193471010560355030734165127365162, 10716060832505608751514198473532270823974388638212166018107547675966187343803]</t>
+        </is>
+      </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
@@ -3164,6 +3842,8 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3172,32 +3852,40 @@
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>['iot_7.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>['iot_7.r', 'iot_7.R']</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
         <is>
           <t>iot_7</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>5329534096927548697665722781608303697319614833823200073140219807633914228811</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>[6357085121716606457465054478481521116536060818878114750673241251451213629037, 7846259296055439315201978502708131478100130282075509974710940142814670218462]</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>1620491838070237806732817490441692088488870074827666557131447439067968438158</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>[15791911217610392126269672576136377281460885336910698903263809508031570501692, 8203287806797618925180711086382613247391551445675868046397507637826792439081]</t>
+        </is>
+      </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
@@ -3205,6 +3893,8 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3213,32 +3903,40 @@
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>['iot_8.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>['iot_8.r', 'iot_8.R']</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
         <is>
           <t>iot_8</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>15097046339980057695816359033716849784806776719442784326981088194382582431843</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>[4815701693664446925150116039704664986855959262339584464786415477216591376995, 1523151836097346860843045237672653432096070754299596885678974763157952620008]</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>12024710582132042124710659821660563782473790906530767920851276377790521407054</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>[13690429671463672585021106787192019798599405718400309895482730999033599140612, 11162729813650760841098862075282703629810054351503827530978032476832521248500]</t>
+        </is>
+      </c>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
@@ -3246,6 +3944,8 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3254,32 +3954,40 @@
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>['iot_9.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>['iot_9.r', 'iot_9.R']</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
         <is>
           <t>iot_9</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>12449430545766981919902330017457723776491680540844633224992156122055942164058</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>[16142198572255123083054527070551501784566303737121900742189662065195267573119, 7762795039677961186659862576960486239116881485584139005645474143592117327535]</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>3801112621940036199888140790817681319124334472942160005770174559206847280037</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>[15870097661203794342848762419224061437584497649042508863868714074216165441456, 6918659373609926096726321877797249225358871759284567820193623550770394271049]</t>
+        </is>
+      </c>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
@@ -3287,6 +3995,8 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3295,32 +4005,40 @@
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>['iot_10.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>['iot_10.r', 'iot_10.R']</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
         <is>
           <t>iot_10</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>7440404132939604588317268175686815537755245931616645775793946158744066688092</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>[12132010367825880414169382876360491740650510920539576341784969228731138336720, 6569453113566221875362801816407854775961255732026206906161083561611589668041]</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>41663291040871341640115330015110900606232603359721827270189543701702614342</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>[9363196192760005536689524291453394359727299104171413598629993028572996250067, 4658884959134188272324493638772506731430791183183090604244484596014875037671]</t>
+        </is>
+      </c>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
@@ -3328,6 +4046,8 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3336,32 +4056,40 @@
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>['iot_6.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>['iot_6.r', 'iot_6.R']</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
         <is>
           <t>iot_6</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>3613207214538771282235335315514139959175915662874734662185562452345951926594</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>[13741078890847167812644444599642175964114368202399910974521469098963128764328, 253773103370430701978963531923336956783235735569252344482950810854480911044]</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>938911278005429756708044191922022836473365594142139409471123327709110069208</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>[6063838544833506363968595630896604172377580811222803282223469779695645181395, 15934298716017180905195765144944447632620508691443252157631546107285070735403]</t>
+        </is>
+      </c>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
@@ -3369,6 +4097,8 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3377,32 +4107,40 @@
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>['iot_7.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>['iot_7.r', 'iot_7.R']</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
         <is>
           <t>iot_7</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>2301100415860875033066867671623307512091357664443726882298644149270509804151</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>[409978671957765831773385549440160740777500627538176846757385843059621584625, 3062362057470645728592451846501424840534574873455462910576997477624449434743]</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>11929741475773211075838399718059192993868325496538837175241396966999149803740</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>[3910274030173996428119311467201250323409271036373518237516402254571665818373, 7830460319559081652960999135845315633091855858747515514860660644231775970703]</t>
+        </is>
+      </c>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
@@ -3410,6 +4148,8 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3418,32 +4158,40 @@
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>['iot_8.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>['iot_8.r', 'iot_8.R']</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
         <is>
           <t>iot_8</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>360773866763610378962480907196157268949345843208027057272612314844284662442</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>[6557532252946023386526990227088650966139952026734830105631766411478310206249, 8020820265402100800668367305483361892496467114163991288199066737610123431834]</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>15859085847165131456463458732327269823016435194015917312042119320198657500441</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[2168387063361622194948383691210712455247313103163855967135728127886349687211, 789954056959739293808627056711446312993816471364575566154314694683138200768]</t>
+        </is>
+      </c>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
@@ -3451,6 +4199,8 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3459,32 +4209,40 @@
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>['iot_9.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>['iot_9.r', 'iot_9.R']</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
         <is>
           <t>iot_9</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>298487102124540528377151592860704672979255646771558625255375619372868537058</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>[4216867485188355212074399856392664181877244147551214591165992915094221974550, 13634550252800979566166522552720550373201770869122028222731139735849116132678]</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>10271738809765441447523306389226608808145137576494133791342550945256131135040</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>[343906168334969115984734515116751633732783278051221452479650458416883222189, 4422103478943458590143736425461619208887110677527089095550932024919168892452]</t>
+        </is>
+      </c>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
@@ -3492,6 +4250,8 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3500,32 +4260,40 @@
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>['iot_10.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>['iot_10.r', 'iot_10.R']</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
         <is>
           <t>iot_10</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>6573942928523002054210481355827578247197537382493517977616913017400806363636</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>[3256106023136243370928888713656361893029035260187591773952512798577446771520, 4530418845060043900292608341826892686313994128565084024015048800231286762308]</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>14906793013599878237429431846807247629054856722981585279177713833819533393224</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>[8297570189088859637875222594178863798347137190748152592249833715839424726982, 5786995382557965568434816869388292092006532957883310502462706283973121313548]</t>
+        </is>
+      </c>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
@@ -3533,6 +4301,8 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3541,35 +4311,45 @@
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>['edge_2.tpm.private_key', 'edge_2.r_edge', 'G_0', 'iot_6.r', 'iot_7.r', 'iot_8.r', 'iot_9.r', 'iot_10.r', 'iot_6.r', 'iot_7.r', 'iot_8.r', 'iot_9.r', 'iot_10.r', 'iot_6.private_key', 'iot_7.private_key', 'iot_8.private_key', 'iot_9.private_key', 'iot_10.private_key', 'iot_6.private_key', 'iot_7.private_key', 'iot_8.private_key', 'iot_9.private_key', 'iot_10.private_key']</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>['edge_2.signature']</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
         <is>
           <t>edge_2</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>(7504084112800161629872678439832408276172984926819009099540186960344984253358, 49532319419206767333116759938700698524688046488359104698326473733915, [11632048013571985152472943608432756358166534089214821318613407715978647183441, 15079418231269163934364083522221737463458999454098937286090925174971215897145])</t>
-        </is>
-      </c>
+      <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>(1976241079945858321830642064657132063539424016281654849843109415346228460269, 12259964326941369761423160166754287189200007214560347878, [12753014643252293730139303724640032796636775713500120463337690871747159400099, 4796296665535141544550394809291395207597392934746801856472468043283669858750])</t>
+        </is>
+      </c>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3578,32 +4358,40 @@
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>['iot_11.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>['iot_11.r', 'iot_11.R']</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
         <is>
           <t>iot_11</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>6866871953030806663816546537303504086887016853140755305856501166746843744818</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>[4944699288306497425423717390354696622562347089188040717822550881169498322344, 13203093022310939297809341153707215493118711875247287064340643134884545230015]</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>776569780354612278445176198596313340858780564995249462377184131508776950325</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[6572796949632879202753148251534758486568506614152541915714702010947936504853, 7828751011784875245956658640986494125193366304800689698560895020652848098498]</t>
+        </is>
+      </c>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
@@ -3611,6 +4399,8 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3619,32 +4409,40 @@
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>['iot_12.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>['iot_12.r', 'iot_12.R']</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
         <is>
           <t>iot_12</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>9328353014950330956700413093413848987364255218509638558943329894839660209097</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>[9608094752432141220930285575780536232829901819216789496019812998609096095580, 4919056457399672643496536204149380603941547355619424517669179340539219406769]</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>4385634702554409454599672840964540442094134747988995484875142780396817210983</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>[12038524727104132832892330198141741675271217798103805285983621105947892720777, 11300813374255579518248027343583346657770941430720284029988851724581167237290]</t>
+        </is>
+      </c>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
@@ -3652,6 +4450,8 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3660,32 +4460,40 @@
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>['iot_13.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>['iot_13.r', 'iot_13.R']</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
         <is>
           <t>iot_13</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>9428734498783815222017129437706524577890957093865936788545200363725826767358</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>[5804134261656066254708386871027922145858777304570276722673041949448118181981, 9505520412672580582932164809140234527881322857178473211388046664311805072554]</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>12770875552513120637549740595552901561087982829756105330288795047501462930229</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>[695700074139996704502308606858660150955958219077132063803625349069276349335, 939729308825575250977644661852492882216551488131752405141310236457407282464]</t>
+        </is>
+      </c>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
@@ -3693,6 +4501,8 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3701,32 +4511,40 @@
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>['iot_14.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>['iot_14.r', 'iot_14.R']</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
         <is>
           <t>iot_14</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>11238830174648482490861186734391815784152174110185768384752592026218601819847</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>[1344168912259929502874314343994869638738265028351577566709461281868343926645, 7812174681406925499852845239545854624238354526779656326403313454499863598225]</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>9855768332176312057189167192558992532182853443309477600594722216411493242908</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>[3272948273850835397956723152558281772919961674987672030655903591709742830579, 15413285510208043023433900466777928192264996021244892061933762756484894351212]</t>
+        </is>
+      </c>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
@@ -3734,6 +4552,8 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3742,32 +4562,40 @@
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>['iot_15.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>['iot_15.r', 'iot_15.R']</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
         <is>
           <t>iot_15</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>6276454949279142694013094147006794055624341179711769538972698807004511477492</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>[15119577146322828264635234779236637651773811781362388011365600610050812921457, 2237294735382838705578807269240157585231887123176869846605696278158791522643]</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>12370669071446420279231615349307064848287449190450391868583524744301403325802</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>[8557236555349941596179775892158125261852049014449538776942399932372971183679, 12507126846774926432545275916301967985814798580180448677665961180270104493082]</t>
+        </is>
+      </c>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
@@ -3775,6 +4603,8 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3783,32 +4613,40 @@
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>['iot_11.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>['iot_11.r', 'iot_11.R']</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
         <is>
           <t>iot_11</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>1053267464523988666890387844525555348142232227709092111019395777189143164595</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>[259363827989324166411610219318397312008633558814543105132899826784308491572, 7606464430038884011770468495796986001773547219876718157108170027310678321049]</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>7878620434069503191996596478928166711238047185224134870202472604539736674408</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>[7404016398462670056871966600875987920780552066397422833897385537464689344322, 10258358180601501772171631665666071543689139918178993667054033154859045695963]</t>
+        </is>
+      </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
@@ -3816,6 +4654,8 @@
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3824,32 +4664,40 @@
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>['iot_12.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>['iot_12.r', 'iot_12.R']</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
         <is>
           <t>iot_12</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>10556335316822297268200798143031029086834839371910629700042794487582120377192</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>[4540863432105439091459142248101172220332170187519438741314161763888951838376, 8799057611078213712190061240809028173494544637874281075822590879199470587228]</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>606874876890762062636606208924777196680748276802566377249039525771158854376</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>[13798316257753128075880862152399122274599956520200625234218099365676342118256, 1733036404381582001362320501512985510984987317881256121350139420713135825881]</t>
+        </is>
+      </c>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
@@ -3857,6 +4705,8 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3865,32 +4715,40 @@
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>['iot_13.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>['iot_13.r', 'iot_13.R']</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
         <is>
           <t>iot_13</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>8810702776545161419167457506551701802943662008034305459525015220370130977605</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>[13737241864850289971647755265802878411059117214161490281070602919957046209866, 10455328065553430426327245516994662423267007727859379844369136920840095905855]</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>9130193979680330639569210917000860512299256657935357591956418313774598298328</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>[4931303853026376917094047135176682915540743080081037918861407934790205692980, 15565763267478643552636318553174620623368802177696613630352565637804845602949]</t>
+        </is>
+      </c>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
@@ -3898,6 +4756,8 @@
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3906,32 +4766,40 @@
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>['iot_14.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>['iot_14.r', 'iot_14.R']</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
         <is>
           <t>iot_14</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>2491464584384296969693770033984587557617311070093567668980824853222637541129</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>[7896536621492792015743342482950795501375311589251307481382319594251150603369, 14279979710344695921141649543222447175179269392500294730617570241870418572367]</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>9068618145699888876783537651334135131510137766565165117796279263309235866520</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>[12126194914310365303439997909173008865131086029596773780647667008772464197683, 12247925597846155604970476394416202694330199184315809114525376569366331539665]</t>
+        </is>
+      </c>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
@@ -3939,6 +4807,8 @@
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3947,32 +4817,40 @@
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>['iot_15.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>['iot_15.r', 'iot_15.R']</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
         <is>
           <t>iot_15</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>7588613475047680794719839808035122182933903212970929980777255652534990619411</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>[14208659682247501607735754049099934124977345598614172650144975724027244908922, 581592243548652692608090988708186720201654517450735108567614468610924806037]</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>9664543144871682853052169102132060051865638628286050012156861382305570762477</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>[10920064812843581227687405734871652614428157637457844612313050824504888122047, 16089835050113194280322845005004564175496313578472203293496517095269979833194]</t>
+        </is>
+      </c>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
@@ -3980,6 +4858,8 @@
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3988,35 +4868,45 @@
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>['edge_3.tpm.private_key', 'edge_3.r_edge', 'G_0', 'iot_11.r', 'iot_12.r', 'iot_13.r', 'iot_14.r', 'iot_15.r', 'iot_11.r', 'iot_12.r', 'iot_13.r', 'iot_14.r', 'iot_15.r', 'iot_11.private_key', 'iot_12.private_key', 'iot_13.private_key', 'iot_14.private_key', 'iot_15.private_key', 'iot_11.private_key', 'iot_12.private_key', 'iot_13.private_key', 'iot_14.private_key', 'iot_15.private_key']</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>['edge_3.signature']</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
         <is>
           <t>edge_3</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>(271325280720798345052561469021582047099881402851142240486142314370712179441, 24519928653868480628289936383956760658149916051648791669, [10336094671509312427327246114593976205845110987399585790953861051612763600843, 1564626716721266676503158198045572764256991905736929726220192121908595895525])</t>
-        </is>
-      </c>
+      <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>(7937784576699896704471851305319909178046121687138868928387404023310836743598, 12259964326941369761423160166754287189200007214610144258, [13365219013253936175407359997146481954447566285267038203178656149584155127335, 13666152225470094824553701990745423849747599461827784857905101795769397293791])</t>
+        </is>
+      </c>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4025,32 +4915,40 @@
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>['iot_16.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>['iot_16.r', 'iot_16.R']</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
         <is>
           <t>iot_16</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>9346155070239445142576576943463057692226817869412296677708957372334263171753</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>[12277640557359560991703123117105939430253454306040192698077344648127429307266, 11402298228870594472404789194616445703467171028497020179957948537895697622807]</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>13990455872166688955803885378099144967660922122297025802454600280445130454792</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>[4794657440089931455214361891926038852798429492277883778305972053492887291857, 16199036567735999862951869112960470421372587656992053247115398730974647638817]</t>
+        </is>
+      </c>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
@@ -4058,6 +4956,8 @@
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4066,32 +4966,40 @@
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>['iot_17.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>['iot_17.r', 'iot_17.R']</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
         <is>
           <t>iot_17</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>3781409417742315774756566184999947770700758568581992793362207676448809814214</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>[16226182413048000675795709448807294421312735487369047790654953701850012745813, 14482581307016414800599012559430186427216186159268908515318533624007900881538]</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>1091494446838309945967234777183897597960443429457674702382472652979833348385</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[7063661693905969993463146189368489614644294676685706823927365037334697613737, 11150183935732512762731841444194402773179503717324748039417848078626863511414]</t>
+        </is>
+      </c>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
@@ -4099,6 +5007,8 @@
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4107,32 +5017,40 @@
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>['iot_18.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>['iot_18.r', 'iot_18.R']</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
         <is>
           <t>iot_18</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>5873074209699328759155590532049607837995606078178825124777029739892577550626</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>[6100565865535533655091912552786276756069042860325621985672950956195589266533, 6688804877008608109092211885478364554623202371361555605876390395249286805578]</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>13521489898586397117552342222624966753562941823691110081846138937933564285800</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>[13853751020353367593674141967300087173987273997961694255086192834813006832934, 1166057886119072103802354483547323402532254106452413105148889167267553430464]</t>
+        </is>
+      </c>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
@@ -4140,6 +5058,8 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4148,32 +5068,40 @@
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>['iot_19.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>['iot_19.r', 'iot_19.R']</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
         <is>
           <t>iot_19</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>14910644103693722750666016955735702281699707391083148388661270446665620158561</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>[11680155229889688424260211602503460555914585525691178183513527596637890373284, 14954645593357483210224547001268517644780719444800664862340975073637069659116]</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>8333758493262326195703504546670017843393161612063310110451595742258666456149</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[10834218842482922325198598404671846633085955914159439888960553191298484360156, 9776871827677750037059293517781844277453951811605117571398760016106613156146]</t>
+        </is>
+      </c>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
@@ -4181,6 +5109,8 @@
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4189,32 +5119,40 @@
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>['iot_20.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>['iot_20.r', 'iot_20.R']</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
         <is>
           <t>iot_20</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>609701982547288260486093487033132263369479901607448063837156094316850748298</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>[6094425756133938539803318463696312512716439456311512728427099233204545643779, 2409392486832173641778749219096856704159570052730387255798573083817424421478]</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>2714913437007146757711478723469345003869437703859475738805794810383222279769</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>[10891435235413475464029205804227895390740044601085822874072765688161564630521, 6674785614426170732854869138482161713660834216221214452903704965081087500309]</t>
+        </is>
+      </c>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
@@ -4222,6 +5160,8 @@
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4230,32 +5170,40 @@
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>['iot_16.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>['iot_16.r', 'iot_16.R']</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
         <is>
           <t>iot_16</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>14558319102799460315159581742651262452807900160085281437736433452649329264565</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>[9331367820679768700090433892150754369862396888131623359110717977459865561139, 12956132427386375554431456643453512811610390929894546473621012554560599107480]</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>6010867625509554264276021125029377757182789160195978144740414126986739348161</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>[16000871429932712736089329585184656057151264450308182795549030185937902382258, 10641600310131497308300310303181581639249480912266176706974049600560559300764]</t>
+        </is>
+      </c>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
@@ -4263,6 +5211,8 @@
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4271,32 +5221,40 @@
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>['iot_17.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>['iot_17.r', 'iot_17.R']</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
         <is>
           <t>iot_17</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>15874076368678561444725150969261641471429580606322668435605897560548284069595</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>[13038152220103743402499208956656227783305829791357220841426458241594945416933, 6630444985892926086296809282712712478856138522582357204276821970175397435786]</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>741371470091925601961144715662048080975657735697074805998848292115088772218</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>[6034172033751771171435249247086726196376956546189493549959712197662752602952, 7466106282480333580410028756739067068242356209012947956222868350998594483656]</t>
+        </is>
+      </c>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
@@ -4304,6 +5262,8 @@
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4312,32 +5272,40 @@
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>['iot_18.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>['iot_18.r', 'iot_18.R']</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
         <is>
           <t>iot_18</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>15326775322213666091407912821459148051788501468830502287017544165729968491632</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>[11986755461762040064809537988967879369612102307900463385838798748544950348256, 449489870565078296489930313327749483900959940433510342700615484276562428624]</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>8963472139086838932916595888933345370305166175743850135657278592402249116274</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>[670022395854766493965833709249210623512112173685605674685255951771175665478, 12070591985619629480605743568376106584318640435811323398462158842357821749814]</t>
+        </is>
+      </c>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
@@ -4345,6 +5313,8 @@
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4353,32 +5323,40 @@
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>['iot_19.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>['iot_19.r', 'iot_19.R']</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
         <is>
           <t>iot_19</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>15784613742048143356333269845381963060453152604485445181843307242883317370443</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>[947399791301960844931130792112233128224556744078040313431032587994446925194, 12257354365048312231806650214382109744304152831423205411882853225261761798880]</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>14750349148852834406488135862918665807070885251072723915987938496572754026319</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>[8525178119104066367082475028525567015348778292680142975989147174949615161920, 22598414332785820430549844164409760542989066570855022015360093486583622681]</t>
+        </is>
+      </c>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
@@ -4386,6 +5364,8 @@
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4394,32 +5374,40 @@
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>['iot_20.private_key', 'G_0']</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>['iot_20.r', 'iot_20.R']</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
         <is>
           <t>iot_20</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>2181796695215884426850382036747427737039357163885974264879059927485613242998</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>[246070322226826996221390952759772037869545092924670008508854641028864740798, 9622987588015271452374288791267151836698734051691385887615949341241039547610]</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>2172902750181622894060651490986478772904042919948269311851593449640519816762</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>[5379372475530863420249747452370765718491625701706827019669634195474133702181, 10415382650659718831036044089757594809819217796100168701285177041759448217489]</t>
+        </is>
+      </c>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
@@ -4427,6 +5415,8 @@
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
       <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4435,35 +5425,45 @@
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>['edge_4.tpm.private_key', 'edge_4.r_edge', 'G_0', 'iot_16.r', 'iot_17.r', 'iot_18.r', 'iot_19.r', 'iot_20.r', 'iot_16.r', 'iot_17.r', 'iot_18.r', 'iot_19.r', 'iot_20.r', 'iot_16.private_key', 'iot_17.private_key', 'iot_18.private_key', 'iot_19.private_key', 'iot_20.private_key', 'iot_16.private_key', 'iot_17.private_key', 'iot_18.private_key', 'iot_19.private_key', 'iot_20.private_key']</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>['edge_4.signature']</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
         <is>
           <t>edge_4</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>(3522084227201149738888911267907821387688881598137045489164668435312360124197, 12259964326941369761423160166754287189200003074109554153, [4048038597218999229323281218848673810826215411160969147030200633909964555835, 11214618664122488118033214096184914906345920206718557690702492898537746144377])</t>
-        </is>
-      </c>
+      <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>(1122954272942884426452995559697362213476365685598026199843418435593791700401, 12259964326941369761423160166754287189200007214493382467, [6348569566436460884084929416688163870265493953969288122485736617802110131678, 10735428383807847956022046010378297856050414345001046173784401533470168328927])</t>
+        </is>
+      </c>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4472,16 +5472,24 @@
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>['edge_1.signature', 'G_0', 'edge_1.public_key', 'iot_1.public_key', 'iot_2.public_key', 'iot_3.public_key', 'iot_4.public_key', 'iot_5.public_key', 'iot_1.public_key', 'iot_2.public_key', 'iot_3.public_key', 'iot_4.public_key', 'iot_5.public_key']</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>['edge_1.verification_result']</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
         <is>
           <t>edge_1</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4489,40 +5497,42 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>7436662103742816079590239257726003229778697638650471798751897577576484642649</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>12259964326941369761423160166754287189200003074249253876</t>
-        </is>
-      </c>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr">
         <is>
-          <t>[11992580838397253796840087949698439063348103201900087943227100735108194691376, 1255637081528190498166802678147413334786726417792072053793647839279054426728]</t>
+          <t>8587870363718830458059509730952618123305359945860874046815273844095127676923</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>[11986449396876526296082962304347239111049445535045772722840655109470621650026, 4445943926384335838979840476353146827531678381895757989465563006747466258590]</t>
+          <t>12259964326941369761423160166754287189200007214539649759</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>[3964524058425383611354198490822446040557488218380128523864069294835310589428, 2914596489546215197588550446646701016947525446833225010508550074581870660514]</t>
+          <t>[1443559274521431983719990034811397770880082389779678787501554392641513253662, 4200922890809644806287663441069558563980431493048503248180482388019577207992]</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>12259964326941369761423160166754287189200003074249253876</t>
-        </is>
-      </c>
-      <c r="V101" t="b">
+          <t>[5811006458616101024516810304996787738306581832930568229318368316915100530252, 13425188471015513378047441815764854050747238556972532235949776872266456510166]</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>[13928211707237519501939914842630612138315441089188704324255289906289025271948, 6301251791938723648332266802765253900559364158027500955756636316353268780700]</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>12259964326941369761423160166754287189200007214539649759</t>
+        </is>
+      </c>
+      <c r="X101" t="b">
         <v>0</v>
       </c>
-      <c r="W101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4531,16 +5541,24 @@
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>['edge_2.signature', 'G_0', 'edge_2.public_key', 'iot_6.public_key', 'iot_7.public_key', 'iot_8.public_key', 'iot_9.public_key', 'iot_10.public_key', 'iot_6.public_key', 'iot_7.public_key', 'iot_8.public_key', 'iot_9.public_key', 'iot_10.public_key']</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>['edge_2.verification_result']</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
         <is>
           <t>edge_2</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4548,40 +5566,42 @@
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>7504084112800161629872678439832408276172984926819009099540186960344984253358</t>
-        </is>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>49532319419206767333116759938700698524688046488359104698326473733915</t>
-        </is>
-      </c>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr">
         <is>
-          <t>[11632048013571985152472943608432756358166534089214821318613407715978647183441, 15079418231269163934364083522221737463458999454098937286090925174971215897145]</t>
+          <t>1976241079945858321830642064657132063539424016281654849843109415346228460269</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>[7528925837539234151750148506329915021705911940510696284516099218474362420560, 9359621207088608910621073706925098503094737384307309787340621900463003073808]</t>
+          <t>12259964326941369761423160166754287189200007214560347878</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>[7340158400781824724132838105928930537087287422897399461804541668034520266027, 9028096239456947520280902020305380835195154259850405120448609801869073599384]</t>
+          <t>[12753014643252293730139303724640032796636775713500120463337690871747159400099, 4796296665535141544550394809291395207597392934746801856472468043283669858750]</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>12259964326941369761423160166754287189200003074173138715</t>
-        </is>
-      </c>
-      <c r="V102" t="b">
+          <t>[12687158265783171638507264629022858072937717832850189823661468586674553139671, 16009107377208604041702546509730227621525277095462995715901004108023081126550]</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>[2991232215822029787762447672606453041970535154251204594943557012028003133221, 1104972586917889923228740001343949914004592347189200272496902061272966836376]</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>12259964326941369761423160166754287189200007214560347878</t>
+        </is>
+      </c>
+      <c r="X102" t="b">
         <v>0</v>
       </c>
-      <c r="W102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4590,16 +5610,24 @@
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>['edge_3.signature', 'G_0', 'edge_3.public_key', 'iot_11.public_key', 'iot_12.public_key', 'iot_13.public_key', 'iot_14.public_key', 'iot_15.public_key', 'iot_11.public_key', 'iot_12.public_key', 'iot_13.public_key', 'iot_14.public_key', 'iot_15.public_key']</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>['edge_3.verification_result']</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
         <is>
           <t>edge_3</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4607,40 +5635,42 @@
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>271325280720798345052561469021582047099881402851142240486142314370712179441</t>
-        </is>
-      </c>
-      <c r="Q103" t="inlineStr">
-        <is>
-          <t>24519928653868480628289936383956760658149916051648791669</t>
-        </is>
-      </c>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr">
         <is>
-          <t>[10336094671509312427327246114593976205845110987399585790953861051612763600843, 1564626716721266676503158198045572764256991905736929726220192121908595895525]</t>
+          <t>7937784576699896704471851305319909178046121687138868928387404023310836743598</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>[12102357063257108081892962120331771264661394266042483296052610479449071366662, 7590306196403897403100888779603880802012533138212224666875753333757556822509]</t>
+          <t>12259964326941369761423160166754287189200007214610144258</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>[7590240742264127142114747959160406837470454323625337802359193695455914092004, 4275717233376974603360256081239410669314089372997978479255037647821490329160]</t>
+          <t>[13365219013253936175407359997146481954447566285267038203178656149584155127335, 13666152225470094824553701990745423849747599461827784857905101795769397293791]</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>12259964326941369761423160166754287189200003074179974261</t>
-        </is>
-      </c>
-      <c r="V103" t="b">
+          <t>[1776968148579534789053219875362231162101637160634125815457998374418159773319, 15976707885572795821446614508505704792918849316026343022157628323513833527487]</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>[16210091656858738498939146559212808948518283946701617764051061801661587784428, 5440347539098433384824306051486816553030042586308720539320296056772580935465]</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>12259964326941369761423160166754287189200007214610144258</t>
+        </is>
+      </c>
+      <c r="X103" t="b">
         <v>0</v>
       </c>
-      <c r="W103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4649,16 +5679,24 @@
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>['edge_4.signature', 'G_0', 'edge_4.public_key', 'iot_16.public_key', 'iot_17.public_key', 'iot_18.public_key', 'iot_19.public_key', 'iot_20.public_key', 'iot_16.public_key', 'iot_17.public_key', 'iot_18.public_key', 'iot_19.public_key', 'iot_20.public_key']</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>['edge_4.verification_result']</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
         <is>
           <t>edge_4</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4666,40 +5704,42 @@
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>3522084227201149738888911267907821387688881598137045489164668435312360124197</t>
-        </is>
-      </c>
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>12259964326941369761423160166754287189200003074109554153</t>
-        </is>
-      </c>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr">
         <is>
-          <t>[4048038597218999229323281218848673810826215411160969147030200633909964555835, 11214618664122488118033214096184914906345920206718557690702492898537746144377]</t>
+          <t>1122954272942884426452995559697362213476365685598026199843418435593791700401</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>[13271398130981300034585979722983352976211798616970485856863553981900558295735, 9909846705275906302355729850420745118343664367306455360379609527911207170296]</t>
+          <t>12259964326941369761423160166754287189200007214493382467</t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>[15550061089486145343431150391730352206287866848120690063485378491486570260206, 7004725458320675135779784653760000043737434172883972579644767172602142023455]</t>
+          <t>[6348569566436460884084929416688163870265493953969288122485736617802110131678, 10735428383807847956022046010378297856050414345001046173784401533470168328927]</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>12259964326941369761423160166754287189200003074109554153</t>
-        </is>
-      </c>
-      <c r="V104" t="b">
+          <t>[8504801430171067865097947406626063917156106852925391964235131537271875785405, 8135360293348012250623527293158608885305193979671045499659068327351613461876]</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>[9448247807890567900232334262782206885365063318088158275286094405287815519195, 5354020752095535721299806728180745769138495793471330324834904247082397576564]</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>12259964326941369761423160166754287189200007214493382467</t>
+        </is>
+      </c>
+      <c r="X104" t="b">
         <v>0</v>
       </c>
-      <c r="W104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4711,23 +5751,23 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
         <is>
           <t>edge_1</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>([160163747454802040073178052973500830878172713919572753530582589072297762597, 14769545325534417241698882374551231729919853910301394536460065429563447685642], [8767255917317792791765532039993647838915082171391416614901225463399423334331, 6964222159464493715613964124440043781877475499223435682712538589818281403721])</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>([732028262434017082168575455180858147102107181137089390002535276069583037684, 15461720976926335873260812913232535674070134191975591523517251432415689860769], [13104443309259338577527458289468098108499034536990140054172973121148549278219, 11306500014540963138883549747153731003631480048297938322553179535493068009984])</t>
+        </is>
+      </c>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
@@ -4736,7 +5776,9 @@
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr">
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr">
         <is>
           <t>edge_1</t>
         </is>
@@ -4752,23 +5794,23 @@
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
         <is>
           <t>edge_2</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>([13541148278081961284279681839855531241356045509680223872675517899649045072002, 15025519614588754194761043225220545576433266287768715098178678574139781181326], [5164694667299269443289839515636376692105262122625397243950335770600794839971, 12054606962167503081066257278569886793738146269340583420700007451692774014341])</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>([9945367500176102794940123894464144297692013786125945738267279728727068134235, 5701150521930344008350073220544890487926780862912866025323837044756937952540], [15901556667038392808079618035223919974974926116965336977626206216720548491370, 12687786400785155512997492984596321756211340365940873483171498777099903195309])</t>
+        </is>
+      </c>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
@@ -4777,7 +5819,9 @@
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr">
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr">
         <is>
           <t>edge_2</t>
         </is>
@@ -4793,23 +5837,23 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
         <is>
           <t>edge_3</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>([990624987602045764904224243420724836704159235604260286385051930699663698340, 11879679724582780921397547709349448745863738237092810692271750256882719094110], [11300179837146688071276798166827020070555636733407614427637815715709835426977, 10485058701682072033196074097235946707840107070207857187622776906773266024496])</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>([2156528735522759854374802877451728607248022950734059644946809967125165738461, 7932891585778727946204551293686634669246960245341966790398995678693904029287], [14132526659392865666733633717836005074007086166129086484734112193140215696788, 11257596106527507446097402721405789201297591946854562806504690775486660602428])</t>
+        </is>
+      </c>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
@@ -4818,7 +5862,9 @@
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr">
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr">
         <is>
           <t>edge_3</t>
         </is>
@@ -4834,23 +5880,23 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
         <is>
           <t>edge_4</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>([14200105681730395067586448819695301539857989018452968012212370005072753402629, 13822358206361752612631902428025317256109546049207910283241485210103361686521], [9577756057085295417992416657193425436458822162593655931921927563247476726208, 1826196255285571989705185421369090648484465097714143530505408372220602888679])</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>([15272062221858651060779475559600838931298635910990514074995412666682813352638, 12614263827270356797525298810666446736198651588805105305814381966988857329775], [5733049031176728292188363220399368882050212290045934853018230101263225688269, 10474059738254028012373573466326831891227001258886885098118274429726237940824])</t>
+        </is>
+      </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
@@ -4859,7 +5905,9 @@
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr">
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr">
         <is>
           <t>edge_4</t>
         </is>
